--- a/results/DecisionTreeClassifier_randomsearch-val_df.xlsx
+++ b/results/DecisionTreeClassifier_randomsearch-val_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="E5" t="n">
         <v>24</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
         <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7100840336134454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6812144212523719</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7093837535014006</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6967109424414927</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>

--- a/results/DecisionTreeClassifier_randomsearch-val_df.xlsx
+++ b/results/DecisionTreeClassifier_randomsearch-val_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4265734265734266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4857142857142858</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="E5" t="n">
         <v>24</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.424074074074074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.4085081585081585</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.32</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2928571428571428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2972027972027972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2904347826086957</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.293452380952381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2879710144927536</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5798319327731092</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.5664335664335665</v>
       </c>
       <c r="D15" t="n">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5805322128851541</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.5648148148148149</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C17" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.4</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.3636363636363636</v>
-      </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4142857142857143</v>
+        <v>0.3741258741258742</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4125874125874125</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="E20" t="n">
         <v>24</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4305555555555555</v>
+        <v>0.3784722222222223</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4207459207459207</v>
+        <v>0.3760869565217391</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.5874125874125874</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.5874125874125874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5914918414918415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
